--- a/500all/speech_level/speeches_CHRG-114hhrg97867.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97867.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman, and good morning. Thank you for holding this hearing to follow up on the EPA's Animas River spill. When we met last, EPA Administrator McCarthy was here with us. Secretary Jewell, you were invited, as well; but I know you did not attend because the Bureau of Reclamation at Interior was chosen by the EPA to conduct the independent investigation of the disaster, and the investigation part was not yet complete. At least that was our understanding of your decision not to attend at that time; and that is fair enough.    In your absence during that previous hearing, Administrator McCarthy repeatedly promised that the answers being sought would be contained in an independent report produced by the Department of the Interior. She also said the report would answer who was negligent, who was liable, who would be prosecuted, and how this type of spill could be prevented from happening again.    Unfortunately, when we finally did get the independent report from the Bureau of Reclamation, it did not hold anyone accountable or find anyone at fault. It also did not explain why the EPA team made the decision it did that resulted in the spill.    It gives us the appearance that the Department of the Interior apparently jointly decided with the EPA that these areas were beyond the scope of view, when, in fact, these were the precise questions that our previous hearing focused on. It also failed to resolve a dispute between EPA and the Colorado Division of Reclamation, Mining and Safety.    We really appreciate you being here today, Secretary Jewell, hopefully to help us find answers to these questions that we cannot find in the report. We would like to know why the decision was made to move ahead with digging at the Gold King Mine site, if negligence contributed to that decision, whether or not Colorado state officials approved the decision to dig, and other questions the committee members still have.    I note that your written testimony today also quickly shifts from discussing the incident to discussing the need for cleanup of abandoned mine land sites. This committee has already begun working on proposals toward that end, including a bill by Subcommittee Chairman Doug Lamborn, that would authorize BLM's Inactive and Abandoned Non-Coal Mine Lands Program and Representative Jody Hice's bill to create a Reclamation Foundation.    We do need to acknowledge that the increase in claim location and maintenance fees, according to the change in percentage interest, as required by law, resulted in the relinquishment of more than 48,000 claims and a reduction in revenue of $8.5 million from these sources. Any proposals to fund further cleanup through these sources will have to be carefully examined. Given the perilous state of the commodities market, per ton fees on fill material moved, regardless of economic value, for hardrock and uranium mining may also not have the desired results, especially with concerns that hardrock mining companies would not be able to pass on the fee.    Furthermore, I have developed some concerns about the Administration's POWER + Program, such as, ``How do you propose to set up an AML program for hardrock mining in which money is actually applied for its intended purpose, instead of being diverted into community development in regions where coal mining is declining? ''--especially because the decline is attributable to this Administration's war on coal.    So, Secretary Jewell, before we can fix a problem, we need to know how and why it occurred. Back to Animas--I look forward to you helping our committee get more information about Animas, and I look forward to having a discussion about how the POWER + Program could be used to actually remediate and reclaim, as opposed to doing community development in communities that do not want to redevelop. They want to do what they are doing now with the people they have, the jobs they have, and the community and culture they enjoy.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman; and thank you, Madam Secretary, for being with us here to discuss the Gold King Mine release.    Madam Secretary, it is interesting that the Majority insisted you come here yourself to discuss an incident your agency is not responsible for, as opposed to one of the experts who worked on the technical review. I am not going to complain about that, because I am ecstatic that the Majority is actually taking on environmental concerns. And, I am glad you are here to discuss the real problem: the hundreds of thousands of abandoned mines that are leaking billions of gallons of toxic wastewater into streams and rivers across the country.    These abandoned mines were created by the mining industry, not the Environmental Protection Agency; and we should not forget that. The dead fish, the ruined ecosystems, the orange, lifeless rivers--these are the mining industry's legacy, not the EPA's, and certainly not the Department of the Interior's. This is a serious problem that is going to require serious solutions.    Unfortunately, I do not believe the Majority's proposed solutions are serious. Instead of requiring the mining industry to take responsibility for their legacy, they simply ask for volunteers. Instead of forcing the mining industry to live up to the same polluter pays principle as other industries, they ask the public to adopt an abandoned mine site, much as we have asked the public to adopt a highway, adopt a school, or adopt a park. We are now asking the public to adopt an abandoned mine site that is potentially contaminated and dangerous.    And, faced with an abandoned mine problem that was recently estimated to cost anywhere from $10 to $20 billion to clean up on public lands alone, the Majority has proposed a grand total of $30 million. Yes, $30 million. That is not a serious way to address the problem.    There is no way to clean these sites without requiring the mining industry to contribute to the legacy they created. That is why the Hardrock Mining Reform and Reclamation Act places a royalty on hardrock minerals such as gold, silver, and copper; and it requires the industry to pay a small fee for each ton of material they displace. That would raise hundreds of millions of dollars each year, and that is what you need to start to address the problem.    Now, the Majority has taken an important first step, and fully admitted there is a problem with abandoned mines. Hopefully, Madam Secretary, we can now convince them that serious action is necessary to fix that problem.    Unfortunately, it appears from the Majority's memo for this hearing, that the focus today is not going to be on the very real problem of abandoned mines. Instead, it sounds like we are going to focus on the imagined problems with the Bureau of Reclamation's technical report. Sadly, it seems that the Majority is falling back on their standard playbook of attacking the messenger when a report does not agree with their storyline.    Madam Secretary, I do not want to attack the messenger. I want to attack the half-million abandoned mines throughout this Nation, many of which are ticking time bombs that we need to address sooner, rather than later. I hope that this will not be the last hearing we have on this committee about abandoned mines. I also hope we do not have to wait until we can blame a Federal agency before we hold the next one.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Yes, thank you, Mr. Chairman; and thank you very much, Madam Secretary, for being here.</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Jewell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Jewell. Thank you, Chairman Bishop, Ranking Member Grijalva, and members of the committee. I am here to discuss the Department's actions following the Gold King Mine incident. I have submitted a written statement for the record, and I will highlight a few key points that relate to the Department's responses to the release, and to the larger problem of abandoned mine lands, in general.    Joining me today is David Palumbo, Deputy Commissioner of the Bureau of Reclamation, who oversees the Technical Service Center, among other duties.    Let me begin by saying that once the Department of the Interior was notified of the incident, its response was robust. Our regional environmental officers in Denver, Albuquerque, and San Francisco began sharing information with regional bureau staff, and monitoring the situation. While the Gold King Mine is on private land, DOI has management responsibilities in the area, and our bureaus began carrying out coordinated response activities to support EPA's on-scene coordinator to protect resources and to meet management responsibilities.    Key actions by our bureaus included Reclamation increasing the release of water from the Navajo Reservoir to help dilute mine contaminants moving through the San Juan River, and alleviate concerns that the river fish and wildlife might be impacted.    On the ground, we were collecting and sampling water for impacts, and carrying out field surveillance of fish communities in the Animas and San Juan Rivers. These actions, and those by other bureaus, were instrumental in providing coordination and support to EPA during its continued response.    The Bureau of Indian Affairs also provided important assurances to communities along the San Juan River that their drinking water was safe. BIA conducted water sampling at five Bureau of Indian Education schools along the river, and activated an Incident Management Team in its Navajo region that provided emergency livestock drinking water to users impacted by closure of the San Juan River. Deputy Secretary Connor recently visited the Navajo Nation and met with President Begaye and members of the Nation who were affected by the release, and reaffirmed our commitment to our trust responsibility.    BIA has continued to monitor water used by tribes for drinking, irrigation, and agriculture; and the Fish and Wildlife Service is providing support on wildlife issues related to the incident.    In addition to these on-the-ground actions, shortly after the incident, EPA asked the Department to carry out a technical review of the release. Led by Reclamation, this independent review of the factors contributing to the incident also provided recommendations to prevent such incidents in the future.    It was carried out by career technical staff with expertise in abandoned mine remediation, and was peer-reviewed by the USGS and the U.S. Army Corps of Engineers. This technical review found the release was due to events spanning several decades, and that actions taken by the EPA, in consultation with the state of Colorado's Division of Reclamation, Mining and Safety, led directly to the incident.    The report noted that the conditions and actions of this incident are not isolated or unique, and are surprisingly prevalent, underscoring the need for more focus and funding for abandoned mine remediation across this country. The report identifies that there are few written requirements or consistent guidelines governing abandoned mine lands remediation, specifically when it comes to engineering standards.    Finally, this incident highlights a significant and costly problem of abandoned mine lands, which are a threat on private, state, and Federal lands. These sites are prevalent throughout the West, where legacy hardrock mining activities were concentrated. It is not a new problem. Many sites were mined prior to the enactment of Federal laws that require reclamation. For those sites where no responsible party is found, the Federal Government and, ultimately, the taxpayer, often bears the cost of addressing public safety risks and threats to the environment.    Within the Department, the significant concentration of abandoned mine lands occurs primarily on BLM and National Park Service lands. BLM's program has identified approximately 50,000 sites with an average of 5,400 new sites discovered each year. The National Park Service recently completed its first comprehensive inventory and assessment of abandoned mine sites in the system, and identified over 37,000 abandoned mine land features. Over 10 percent of these, or 3,800, require remedial action to mitigate public safety threats and environmental impacts.    Reclamation work for dangerous sites requires cooperation with state, local, and other Federal partners, and is a resource-intensive operation. The Department continues to request funds to address this problem, and prioritizes and addresses these activities within available resources. Since 2012, the Administration has included in its budget request a legislative proposal authorizing a reclamation fee on uranium and metallic mines with receipts used for reclamation activities on non-Federal and Federal lands.    It is unfortunate that the catalyst to address a problem is often an incident like this. The Department stands ready to work with this committee and Congress to address the issue in a meaningful way.    Thank you, and I am happy to respond to any questions you may have.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t xml:space="preserve">    Secretary Jewell. Congressman, there are 30 seconds left, so I am going to turn to my colleague, David Palumbo, who oversees the Technical Service Center, to provide as quick an answer as we can within the time remaining.</t>
   </si>
   <si>
-    <t>Palumbo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palumbo. Thank you, Secretary. Thank you, Chairman. I would just like to clarify. The work that the Technical Service Center was doing was on the Red and Bonita Mine, as the Secretary indicated. There was no work, there was no contract for activities related to Gold King Mine until after the incident.    The Chairman. All right. First, technically, I had 33 seconds, so I did not break the rule. Also, I am going to challenge that statement later on.    With that, let me go on. Since I am now out of time, let me go on to Mr. Grijalva.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Mr. Chairman, and thanks for holding this hearing.    Secretary, what did you have, as far as assets and technical assistance, in the Department to make available to the Navajo Nation and the Southern Ute Indian Tribe immediately after the blowout and in the intervening months? What did you have, and how did you handle it?</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you, Mr. Sablan. Welcome, Secretary Jewell. It is so good to have you here.    After the spill of the Gold King Mine, the entire Nation--I think all of us--saw appalling images of the river running yellow, as nearby counties and Native American tribes declared states of emergency for local residents, and rightfully so.    As I mentioned at our previous hearing on this accident with EPA Administrator McCarthy, I happen to come from a district that is rooted in the Industrial Revolution, where rivers used to run different colors, depending on the dye that was cast into them at the end of the manufacturing day.    As a Nation, we have come a long way in deciding that this is no longer acceptable, and have made bipartisan commitments to protecting the health of our rivers, for they are directly tied to the overall health of our communities. It was great to have you come to my district to celebrate our Rivers Day and the new role that they play, the very important role they play, in our district.    The Gold King Mine spill into the Animas River, and the possible negligence by EPA contractors, certainly merits--and did merit--an investigation and attention from this committee. But one of the most stunning aspects of this accident, and the subsequent investigations by both the EPA and the Bureau of Reclamation, is that it has exposed just how far behind we are when it comes to environmental cleanups of old, hardrock mines, abandoned by their private owners when they were no longer profitable.    The Gold King Mine in Colorado has been closed for 90 years, yet this mine and others in the area have been polluting the Animas River at the rate of approximately--as you reaffirmed in your testimony--330 million gallons of polluted wastewater a year. That is 100 times more pollution going into the river than the August 5 spill, and the reason that the EPA was working at the site in the first place.    BLM estimates that there are 93,000 abandoned mines in California, Nevada, and Utah, and another 23,000 abandoned mines in Colorado, where the most recent spill took place. There are approximately 161,000 across the entire western United States and Alaska, and some estimate a number as high as 500,000. Yet despite these numbers, there is no dedicated funding source for environmental cleanups of hardrock mines.    I am a co-sponsor of Representative Grijalva's legislation. It would bring the 1872 mining law into the modern age, requiring companies to pay royalties to the American taxpayers for metals extracted from our public lands and creating a much-needed funding source for cleanups of old and abandoned hardrock mines. This is an important reform, and it creates an opportunity to address this long-neglected issue; but until then, we have to deal with the world as it is.    As I have just mentioned, we have hundreds of thousands of abandoned mines across our Nation. Many of them are on public lands, which are depended on by Americans for recreation, tourism, clean drinking water and, for many people, a source of their economic livelihoods.    You referenced it in your testimony, but can you describe the environmental threat that abandoned hardrock mines pose to our public lands, and give us a little more detail on how they affect our national parks?</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman. And thank you, Secretary Jewell, for being here today.    Before I give my questions, I would like to play a quick clip from our last hearing on the Animas spill.    [Video shown and submitted to be part of the hearing record.]</t>
   </si>
   <si>
@@ -358,9 +334,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    Secretary Jewell, thanks for being here. There are two things that the American people want from Federal agencies. They want accountability and they want transparency. So let's look at those two things.    On accountability, has anyone at any agency been fired for this environmental disaster?</t>
   </si>
   <si>
@@ -418,9 +391,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman; and I thank you for holding this hearing. It is important, and I guess I am in a mood to say, ``OK, it is the holiday time, so let's work together so we make sure that this never happens again.'' I thank my friend, Secretary Jewell, for coming today, knowing that this was probably not going to be her most pleasant morning of the holiday season.    But having said that, the Gold King Mine spill is extremely concerning, and it is a real tragedy. Our thoughts and prayers continue to go out to those who were impacted by the spill. But I believe that, as a committee, we need to focus on what the root causes of the problem are, and how we fix it moving forward, and prevent it from happening again.    We need to make sure that the government agencies, whether it is the EPA or an agency at the Interior Department, have the resources that they need and the authority that they require to make sure that we are properly cleaning up abandoned mines, so that tragedies like this do not happen again. It is the right thing to do for our economy and for the environment. So, I hope that we are all going to work together on both sides of the aisle to move forward on that.    Secretary Jewell, your testimony mentions that the conditions and actions that led to this spill are not unique. I would agree with that assessment, that even Michigan, which is not traditionally thought of as a state with mines, has some. So, let me ask you about something we have been working on in our subcommittee, and I think is a real problem that we do have.    One of the reasons that there are so many more abandoned hardrock mines than there are coal mines is because there are requirements for coal companies to post bonds to cover cleanup costs in the event that they go bankrupt. But the biggest coal companies are allowed to avoid posting bonds if they show that they are effectively too big to fail. So how often do we keep hearing that, ``too big to fail'' ?    As with most things that are labeled too big to fail, many of these companies are now failing, and they are descending into bankruptcy. That leaves the taxpayers on the hook for billions of dollars. We raised this issue in May at our subcommittee level as a textbook case of the taxpayer exposure to polluter cleanup costs that the Majority was focused on in that hearing. The coal self-bonding case could result in leaving taxpayers on the hook for orders of magnitude of more money than clean energy bonding that they were focused on. They were invited to join in the investigation. Silence was their answer, and I think that that answer is telling.    Secretary Jewell, a Reuters article yesterday said that there was some concern in the Administration about the exposure to taxpayers from coal self-bonding. Can you tell us about those concerns and the Administration's plans?</t>
   </si>
   <si>
@@ -442,9 +412,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman. Yes, Madam Secretary, the Administration has been widely criticized for failing to respond to the incident in a prompt and responsible manner. This includes having Administration officials visit the impacted areas--and effectively work to rectify the situation whenever possible.    Of course, we are well aware that the Department of the Interior is very aggressive about going after the private sector whenever the least little thing goes wrong. In fact, in contrast to the Deepwater Horizon oil spill in 2010, then-Interior Secretary Salazar offered the full extent of DOI assistance and personally visited the Gulf at least seven times in the 5 weeks following the spill.    So, my question to you, Madam Secretary--how many times did you visit the western states in the weeks following the release?</t>
   </si>
   <si>
@@ -562,9 +529,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you, Mr. Chairman. Thank you, both of you, for being here. I appreciate having some time to talk about this very tragic event that happened. While we can argue about how this came about, I think it is also important to note the persistent problems that we have of abandoned hardrock mine lands, and the negative impact that they have, and will continue to have, on our water resources.    The problem of abandoned hardrock mines is not going to go away. As we consider ways to reform our outdated mining laws, can you expand on existing programs that address other types of abandoned mines, such as coal, and recent budget cuts?    Can you also speak to the impact that that has had on further ongoing investigations?</t>
   </si>
   <si>
@@ -583,9 +547,6 @@
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman. Madam Secretary, to a lot of us, I think the most galling element of this scandal is the government's double standard in addressing spills of this nature. The EPA and its contractors deliberately breached a mine opening that caused a blowout of over 3 million gallons of contaminated water. The EPA had not tested for hydrostatic pressure within the mine, even though experience with other similar mines suggested that they should.    At the last hearing, we heard about a company that accidentally spilled 7,500 gallons. That is \\1/4\\ of 1 percent of what the EPA spilled. You went after that company with a vengeance. You got six criminal indictments; you sent people to jail. Another poor guy in Alaska operating a backhoe accidentally caused a 1,500-gallon spill. That is \\5/100\\ of 1 percent of what the EPA caused. You sent him to Federal prison. Yet, as you just testified to Mr. Lamborn, you have sought no criminal indictments against EPA officials for causing this 3 million gallon spill. You have not fired anybody over this scandal.    Let me ask you this. Have you at least demoted anybody?</t>
   </si>
   <si>
@@ -640,9 +601,6 @@
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Thank you, Mr. Chairman; and I am glad to see you today, Ms. Jewell and Mr. Palumbo.    I think I want to associate myself with the remarks from Representatives Grijalva and Torres and some of my other colleagues in regards to some of the questions that have been posed and some of the statements that have been made.    I have had somebody in that area through Thanksgiving, and was able to visit and talk to some of the folks in that general area, because he is from that general area. They tell me there is still a lot of evidence on the orange sediments. It could be possibly before the spill, because you have had the spill for a long time in that area.    But the concern is, you talk about the Native Americans at Navajo, but you do not mention the other tribe. At least one of them, the Utes, they say all is well; but the toxins from that spill are still finding their way downstream. And, they go all the way down to Lake Powell, which is where California gets some of its water.    The understanding is that the general public has a hard time differentiating between EPA and Bureau of Reclamation, who is down there, or what their role is. I do not think it is clear to some of the folks in that area. The contention is that they really just want somebody to have publicly-oriented results, a scientifically credible and, of course, independent review of those events made public to them. I am not just talking about the tribes and the environmental folks, but the folks that live in the area.    Of course, I am sure the other tribes, they do want a whole picture, the big picture, and not just the newest words of how the Bureau has decisionmaking process and only in engineering.    So, the impacts downstream have still not been divulged or presented to the general public in a complete manner. That is the report I am getting back, and this is as of last month.</t>
   </si>
   <si>
@@ -682,9 +640,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Secretary Jewell, thank you for being here and working to address the real issue of abandoned mines that are threatening our environment and our communities. I want to focus on the impact of these releases on our Native American communities, and how the EPA is improving its communications to tribal jurisdictions.    EPA Assistant Administrator Mathy Stanislaus previously testified at the House Science Committee that one of the initial lessons that we learned in the aftermath of the Gold King Mine release is that the EPA can improve its communications regarding releases and other environmental events that may affect multiple jurisdictions.    Can you elaborate and, where possible, provide an update on how the EPA is working to improve those communications, specifically to our tribal communities?</t>
   </si>
   <si>
@@ -700,9 +655,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman.    Secretary, thank you so much for being here. Let me get right to my questions.    Something happened just recently--last evening, actually, at the eleventh hour. EPA released an addendum to the internal report it released in August. Secretary Jewell, do you know that EPA was working on an addendum to the August internal report?</t>
   </si>
   <si>
@@ -742,9 +694,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you very much. Thank you, Secretary Jewell, for showing up today.    You were in private practice, right? The private sector, right?</t>
   </si>
   <si>
@@ -835,9 +784,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. Secretary Jewell, it is good to see you again.    On page 48 of your report, there is an updated Figure 39, which describes as showing EPA's assumptions about the entrance to the mine adit. Although someone reading your report would not know it, that figure was prepared after the blowout, and the report author knew this when they authored the report. Isn't that correct?</t>
   </si>
   <si>
@@ -922,9 +868,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman; and thank you, Madam Secretary, for being here today. The Minority has illustrated that there are many Gold King Mine disasters out there waiting to happen. Because of the hundreds of thousands of abandoned mines, there is potential for this type of environmental disaster caused by the EPA to be repeated.    For all practical purposes, the technical report is akin to an autopsy report. We have a corpse--or, in this instance, a toxic mine spill disaster; and, technically, the report accurately outlines what happened. The EPA was incompetent. They followed a bad plan, or a lack of a plan. Actually, I have still not had my questions answered as to whether there was a professional engineer in charge, as outlined by Colorado law on this particular project.    But, they started work without understanding what they were doing, they dug a hole where they should not have, and they released 3 million gallons of toxic water into the environment. What happened is straightforward, not surprising, and certainly not rocket science. The sad part is that the disaster was very much preventable.    There are two major problems I see with this report. Number one: the lead examiner has a conflict of interest with the perpetrators. He may be as honest as the day is long and 100 percent accurate in his findings, but it is like the coroner being the suspect's cousin. The report fails miserably to outline the root cause of the disaster, who specifically was at fault, or how to prevent this in the future.    Madam Secretary, like me, you have worked in the private sector, and you have dealt with Federal regulations and regulators. The private sector is scared to death of Federal regulators, because they know the heavy hand of the Federal Government can shut them down. The private sector wears both suspenders and belts when they deal with regulators. They spend way more time and money to make sure they dot all the I's and cross all the T's, and oftentimes that is still not enough.    My first question to you is--should Federal agencies be held to the same measure that they measure by?</t>
   </si>
   <si>
@@ -973,9 +916,6 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman, members of the committee, and Secretary. I apologize for not having been here this morning. I had a conflict with another hearing.    The Department's role with the Environmental Protection Agency on this particular spill, the Animas River--I think, clearly, the facts indicate that this was the responsibility of the Environmental Protection Agency. I am trying to understand why the Secretary of the Interior here is giving her good time in the committee with that clarification in mind.    Certainly, we are all concerned about abandoned mines and the serious threats that they create as it relates to hazards. I think that is something we all share, as well as its impacts to how they are handled. Clearly, no one believes that the 3 million gallons of toxic waste that flowed from the Gold King Mine wasn't a terrible accident. It is regrettable and, clearly, mistakes were made. I think we are learning from the mistakes, but it just seems to me that, in observing how we try to work together as a committee, we should try to focus on areas where we can do the most good.    I am trying to understand, Madam Secretary, after all the questions that you have been asked today with regards to your role and the Bureau of Land Management's role, where you have some responsibility, what are your takeaways from this hearing this morning? Because, frankly, if we are going to be constructive and determine where we go forward, is this something, in terms of the merits, which we can actually have an ability to make corrective action; because of jurisdictional issues, we were not able to have the Environmental Protection Agency head here. We had you, instead.    Clearly, I do not think it makes good sense, whatever differences you may have with the EPA on this effort, to figure out that this is some sort of a fight or a difference that you have between the agency and the Department. You care to comment?</t>
   </si>
   <si>
@@ -988,9 +928,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Madam Secretary, a pleasure to have you here this morning. Mr. Palumbo, thank you for being with us. And thank you, Mr. Chairman, for holding this hearing on this important issue.    You said yourself, Madam Secretary, that these conditions are not unique; they are quite prevalent, especially in the western United States, with thousands of potential issues surrounding abandoned mines. I think it is proper that we, as a committee, look into the `whys' and `wherefores' of not ignoring the elephant in the room, as some people have referred to, but wanting to shed light on what happened, what did not happen, how we can best avoid this happening in the future. I think that is prudent, and thank you for contributing to that conversation.    I also wonder the value of minimizing this. It was substantial, the number of gallons. Certainly there is an issue with water contamination from all these mines, but this was an extraordinary environmental incident, and something that we should certainly see as something that we need to address.    I just put my questions somewhere where I cannot find them. What did I do with those, Mr. Chairman? Someone stole my questions. What I wanted to ask you--here we are--I will let you expound on a couple of questions that you had been asked previously. So--that is not it.    One of the peer reviewers in the independent study that you released on this Gold King Mine incident protested that the DOI report failed to explain the decisions that led to the disaster. This comes after Administrator McCarthy frustrated the committee's previous efforts to get to the bottom of this issue.    So, Madam Secretary, could you tell me--why didn't the EPA test the hydrostatic pressure within the mine before working, even though it was well known that contaminated mine water was gathering in the mine's tunnels? And if these conditions were not possible to be ascertained, why would they proceed?</t>
   </si>
   <si>
@@ -1021,9 +958,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman and Secretary Jewell, who was not able to join us previously in September. I am pleased that you are finally here with us today. I appreciate that.    I want to go with the same line of thought here of why--if we have determined that the testing of the water was important, but it was not done; there was a change of personnel, and that change of personnel created urgency that this needs to be done; but we don't know who that change of personnel was--aren't those important questions? How can we hold someone accountable if we are not even going to look into these types of questions?</t>
   </si>
   <si>
@@ -1072,9 +1006,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you, Mr. Chairman. Thank you, Secretary Jewell, for being here today.    You stated earlier, that the Bureau of Reclamation doubled its water volume down from the Navajo Dam to dilute the toxic plume, is that correct?</t>
   </si>
   <si>
@@ -1129,9 +1060,6 @@
     <t xml:space="preserve">    Mr. Hardy. Federal contracts, I think most of them are dealt the same way. Thank you, Mr. Chairman.    The Chairman. Thank you. Mr. Lujan, we appreciate you being with us here today. Before we go into another round of questions, do you have a statement you would like to make?</t>
   </si>
   <si>
-    <t>Lujan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lujan. Mr. Chairman, I do, and a few questions, if that would be OK.    Madam Secretary, thank you for being with us today. Chairman Bishop and Ranking Member Grijalva, thank you for indulging me the opportunity to be here today.    Madam Secretary, as you know, a big part of the contaminated area and where the spill took place was in New Mexico. I had the honor of attending some of the meetings that took place in Durango in New Mexico with EPA Administrator McCarthy, as well as community meetings that took place in those areas.    Just real quick; as we look at this report, Madam Secretary, your report made clear that responsibility for the mine blowout rests with the Environmental Protection Agency. Correct?</t>
   </si>
   <si>
@@ -1178,9 +1106,6 @@
   </si>
   <si>
     <t>412510</t>
-  </si>
-  <si>
-    <t>Doug LaMalfa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaMalfa. I am hard to miss. I will try and do it in 3 minutes. Thank you, Secretary Jewell.    One of the concerns I have over the spill, and that is a precedent, pertains to the possibility of a similar situation which we could see in my district, near Redding, California, about 150 miles north of Sacramento. There is an inactive mine called the Iron Mountain Mine, which contains extremely acidic drainage. The acid would be, as I am told, 6,300 times as acidic as a battery, which is why Iron Mountain is considered one of the most toxic sites in the country.    What we are concerned about is that it would have an opportunity to drain to a small reservoir which then feeds into California's--one of the largest water systems--the Sacramento River system. Obviously, the concern that would go with that was something possibly happening there, if we did not follow the right protocols. That is a system that feeds into the drinking water and Ag. water, and affects the water for millions of people in the state.    There are several Interior agencies involved in Iron Mountain Mine, including BLM, Bureau of Reclamation, Fish and Wildlife, and the U.S. Geological Survey. Uncontrolled spills in the past have resulted in acidic release from Iron Mountain and have not been of big consequence yet--but California's water supply in drought or not drought is a huge concern.    We are concerned that Federal agencies, by trying to block a previous leak, the mine entrance failed because the waste is so acidic that it ate through the steel and concrete plug involved. We are going to have to think seriously about what is going to be a better permanent solution, and monitoring of that.    Can you describe any Federal efforts to address Iron Mountain continuously, and whether there is any perceived danger that you can see of that being a major problem in the near term, or a need to step up the levels of monitoring in the future.</t>
@@ -1633,11 +1558,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1657,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1683,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1709,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1735,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1761,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1787,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1813,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1839,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1865,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1891,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1917,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1943,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1969,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1995,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2021,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2047,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2073,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2099,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2125,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2151,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2177,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2203,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2229,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2255,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2281,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2307,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2333,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2359,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2385,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2411,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2437,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2463,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2489,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2515,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2541,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2567,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2593,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2619,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2645,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2671,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2697,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2723,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2749,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2775,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2801,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2827,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2853,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2879,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2905,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2931,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2957,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2983,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3009,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3035,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3061,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3087,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3113,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3139,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3165,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3191,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3217,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3243,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3269,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3295,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3321,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3347,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>84</v>
-      </c>
-      <c r="H68" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3373,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3399,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3425,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3451,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3477,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3503,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3529,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3555,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3581,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3607,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3633,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3659,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3685,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3711,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3737,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3763,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3789,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3815,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3841,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3867,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3893,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3919,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3945,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3971,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3997,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4023,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4049,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4075,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4101,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4127,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
         <v>114</v>
-      </c>
-      <c r="H98" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4153,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4179,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4205,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4231,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4257,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4283,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4309,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4335,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4361,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4387,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4413,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4439,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4465,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4491,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4517,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
-      </c>
-      <c r="G113" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4543,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
-      </c>
-      <c r="G114" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4569,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4595,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4621,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4647,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4673,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4699,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
-      </c>
-      <c r="G120" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4725,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4751,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
-      </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4777,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4803,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
-      </c>
-      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>142</v>
-      </c>
-      <c r="H124" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4829,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4855,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
-      </c>
-      <c r="G126" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4881,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4907,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4933,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4959,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4985,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5011,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G132" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5037,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5063,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5089,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5115,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5141,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5167,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5193,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5219,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5245,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>141</v>
-      </c>
-      <c r="G141" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5271,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5297,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G143" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5323,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5349,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G145" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5375,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5401,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G147" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5427,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5453,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="G149" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5479,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5505,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G151" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5531,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>181</v>
-      </c>
-      <c r="G152" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5557,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5583,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>181</v>
-      </c>
-      <c r="G154" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5609,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5635,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>181</v>
-      </c>
-      <c r="G156" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5661,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>188</v>
-      </c>
-      <c r="G157" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5687,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5713,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>188</v>
-      </c>
-      <c r="G159" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5739,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5765,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
-      </c>
-      <c r="G161" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5791,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5817,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
-      </c>
-      <c r="G163" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5843,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5869,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
-      </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5895,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5921,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="G167" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5947,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5973,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
-      </c>
-      <c r="G169" t="s">
+        <v>176</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
         <v>189</v>
-      </c>
-      <c r="H169" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5999,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6025,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6051,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6077,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6103,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6129,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6155,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>207</v>
-      </c>
-      <c r="G176" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6181,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6207,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
-      </c>
-      <c r="G178" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6233,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6259,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
-      </c>
-      <c r="G180" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6287,11 +5854,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6311,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
-      </c>
-      <c r="G182" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6339,11 +5902,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6363,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6391,11 +5950,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6415,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>221</v>
-      </c>
-      <c r="G186" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6441,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6467,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>221</v>
-      </c>
-      <c r="G188" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6493,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6519,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>227</v>
-      </c>
-      <c r="G190" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6545,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6571,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>227</v>
-      </c>
-      <c r="G192" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6597,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6623,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>227</v>
-      </c>
-      <c r="G194" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6649,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6675,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
-      </c>
-      <c r="G196" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6701,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6727,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6753,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>227</v>
-      </c>
-      <c r="G199" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6779,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6805,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>227</v>
-      </c>
-      <c r="G201" t="s">
-        <v>228</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6831,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>241</v>
-      </c>
-      <c r="G202" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6857,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6883,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>241</v>
-      </c>
-      <c r="G204" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6909,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6935,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>241</v>
-      </c>
-      <c r="G206" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6961,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6987,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>241</v>
-      </c>
-      <c r="G208" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7013,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7039,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>241</v>
-      </c>
-      <c r="G210" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7065,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7091,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>241</v>
-      </c>
-      <c r="G212" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7117,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7143,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>241</v>
-      </c>
-      <c r="G214" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7169,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7195,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>241</v>
-      </c>
-      <c r="G216" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7221,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>21</v>
-      </c>
-      <c r="G217" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7247,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>241</v>
-      </c>
-      <c r="G218" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7273,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7299,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>241</v>
-      </c>
-      <c r="G220" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7325,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7351,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>241</v>
-      </c>
-      <c r="G222" t="s">
+        <v>225</v>
+      </c>
+      <c r="G222" t="s"/>
+      <c r="H222" t="s">
         <v>242</v>
-      </c>
-      <c r="H222" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7377,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7403,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>241</v>
-      </c>
-      <c r="G224" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7429,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7455,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>241</v>
-      </c>
-      <c r="G226" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7481,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7507,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>241</v>
-      </c>
-      <c r="G228" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7533,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>21</v>
-      </c>
-      <c r="G229" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7559,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>241</v>
-      </c>
-      <c r="G230" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7585,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>21</v>
-      </c>
-      <c r="G231" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7611,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>241</v>
-      </c>
-      <c r="G232" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7637,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
-      </c>
-      <c r="G233" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7663,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>241</v>
-      </c>
-      <c r="G234" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7689,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>272</v>
-      </c>
-      <c r="G235" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7715,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>21</v>
-      </c>
-      <c r="G236" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7741,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>272</v>
-      </c>
-      <c r="G237" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7767,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>21</v>
-      </c>
-      <c r="G238" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7793,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>272</v>
-      </c>
-      <c r="G239" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7819,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>21</v>
-      </c>
-      <c r="G240" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7845,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>272</v>
-      </c>
-      <c r="G241" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7871,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>21</v>
-      </c>
-      <c r="G242" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7897,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>272</v>
-      </c>
-      <c r="G243" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7923,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
-      </c>
-      <c r="G244" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7949,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>272</v>
-      </c>
-      <c r="G245" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7975,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>21</v>
-      </c>
-      <c r="G246" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8001,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>272</v>
-      </c>
-      <c r="G247" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8027,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>21</v>
-      </c>
-      <c r="G248" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8053,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>272</v>
-      </c>
-      <c r="G249" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8079,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>21</v>
-      </c>
-      <c r="G250" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8105,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
+        <v>255</v>
+      </c>
+      <c r="G251" t="s"/>
+      <c r="H251" t="s">
         <v>272</v>
-      </c>
-      <c r="G251" t="s">
-        <v>273</v>
-      </c>
-      <c r="H251" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8131,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>21</v>
-      </c>
-      <c r="G252" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8157,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>272</v>
-      </c>
-      <c r="G253" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8183,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>21</v>
-      </c>
-      <c r="G254" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8209,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>272</v>
-      </c>
-      <c r="G255" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8235,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>21</v>
-      </c>
-      <c r="G256" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8261,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>272</v>
-      </c>
-      <c r="G257" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8287,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>21</v>
-      </c>
-      <c r="G258" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8313,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>272</v>
-      </c>
-      <c r="G259" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8339,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>21</v>
-      </c>
-      <c r="G260" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8365,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>272</v>
-      </c>
-      <c r="G261" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8391,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>301</v>
-      </c>
-      <c r="G262" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8417,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>21</v>
-      </c>
-      <c r="G263" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8443,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>301</v>
-      </c>
-      <c r="G264" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8469,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>21</v>
-      </c>
-      <c r="G265" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8495,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>301</v>
-      </c>
-      <c r="G266" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8521,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>21</v>
-      </c>
-      <c r="G267" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8547,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>301</v>
-      </c>
-      <c r="G268" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8573,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>21</v>
-      </c>
-      <c r="G269" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8599,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>301</v>
-      </c>
-      <c r="G270" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8625,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>21</v>
-      </c>
-      <c r="G271" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8651,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>301</v>
-      </c>
-      <c r="G272" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8677,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>21</v>
-      </c>
-      <c r="G273" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8703,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>301</v>
-      </c>
-      <c r="G274" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8729,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>21</v>
-      </c>
-      <c r="G275" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8755,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>301</v>
-      </c>
-      <c r="G276" t="s">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8781,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>318</v>
-      </c>
-      <c r="G277" t="s">
-        <v>319</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8807,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>21</v>
-      </c>
-      <c r="G278" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8833,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>318</v>
-      </c>
-      <c r="G279" t="s">
-        <v>319</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8859,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>323</v>
-      </c>
-      <c r="G280" t="s">
-        <v>324</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8885,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>21</v>
-      </c>
-      <c r="G281" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8911,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>21</v>
-      </c>
-      <c r="G282" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8937,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>323</v>
-      </c>
-      <c r="G283" t="s">
-        <v>324</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8963,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>21</v>
-      </c>
-      <c r="G284" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8989,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>323</v>
-      </c>
-      <c r="G285" t="s">
-        <v>324</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9015,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>21</v>
-      </c>
-      <c r="G286" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9041,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>323</v>
-      </c>
-      <c r="G287" t="s">
-        <v>324</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9067,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>21</v>
-      </c>
-      <c r="G288" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9093,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>334</v>
-      </c>
-      <c r="G289" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9119,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>21</v>
-      </c>
-      <c r="G290" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9145,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>334</v>
-      </c>
-      <c r="G291" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9171,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>21</v>
-      </c>
-      <c r="G292" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9197,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>334</v>
-      </c>
-      <c r="G293" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9223,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>21</v>
-      </c>
-      <c r="G294" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9249,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>334</v>
-      </c>
-      <c r="G295" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9275,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>21</v>
-      </c>
-      <c r="G296" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9301,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>334</v>
-      </c>
-      <c r="G297" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9327,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>21</v>
-      </c>
-      <c r="G298" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9353,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>334</v>
-      </c>
-      <c r="G299" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9379,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>21</v>
-      </c>
-      <c r="G300" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9405,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>334</v>
-      </c>
-      <c r="G301" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9431,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>21</v>
-      </c>
-      <c r="G302" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9457,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>334</v>
-      </c>
-      <c r="G303" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9483,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>351</v>
-      </c>
-      <c r="G304" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9509,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>21</v>
-      </c>
-      <c r="G305" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9535,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>351</v>
-      </c>
-      <c r="G306" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9561,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>21</v>
-      </c>
-      <c r="G307" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9587,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>351</v>
-      </c>
-      <c r="G308" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9613,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>21</v>
-      </c>
-      <c r="G309" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9639,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>351</v>
-      </c>
-      <c r="G310" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9665,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>21</v>
-      </c>
-      <c r="G311" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9691,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>351</v>
-      </c>
-      <c r="G312" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9717,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>21</v>
-      </c>
-      <c r="G313" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9743,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>351</v>
-      </c>
-      <c r="G314" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9769,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>21</v>
-      </c>
-      <c r="G315" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9795,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>351</v>
-      </c>
-      <c r="G316" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9821,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>21</v>
-      </c>
-      <c r="G317" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9847,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>21</v>
-      </c>
-      <c r="G318" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9873,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>351</v>
-      </c>
-      <c r="G319" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9899,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>21</v>
-      </c>
-      <c r="G320" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9925,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>351</v>
-      </c>
-      <c r="G321" t="s">
-        <v>352</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9951,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>21</v>
-      </c>
-      <c r="G322" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9977,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>21</v>
-      </c>
-      <c r="G323" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10003,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>21</v>
-      </c>
-      <c r="G324" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10029,13 +9308,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>21</v>
-      </c>
-      <c r="G325" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10055,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>21</v>
-      </c>
-      <c r="G326" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10081,13 +9356,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>21</v>
-      </c>
-      <c r="G327" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10107,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>21</v>
-      </c>
-      <c r="G328" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10133,13 +9404,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>21</v>
-      </c>
-      <c r="G329" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10159,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>21</v>
-      </c>
-      <c r="G330" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10185,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>21</v>
-      </c>
-      <c r="G331" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10211,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>21</v>
-      </c>
-      <c r="G332" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10237,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>21</v>
-      </c>
-      <c r="G333" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10263,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>21</v>
-      </c>
-      <c r="G334" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10289,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>21</v>
-      </c>
-      <c r="G335" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10315,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>21</v>
-      </c>
-      <c r="G336" t="s">
-        <v>371</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10341,13 +9596,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10367,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>21</v>
-      </c>
-      <c r="G338" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10393,13 +9644,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>21</v>
-      </c>
-      <c r="G339" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10419,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>387</v>
-      </c>
-      <c r="G340" t="s">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10445,13 +9692,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>21</v>
-      </c>
-      <c r="G341" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10471,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>387</v>
-      </c>
-      <c r="G342" t="s">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10497,13 +9740,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>21</v>
-      </c>
-      <c r="G343" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10523,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>387</v>
-      </c>
-      <c r="G344" t="s">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10549,13 +9788,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>21</v>
-      </c>
-      <c r="G345" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10575,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>387</v>
-      </c>
-      <c r="G346" t="s">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10601,13 +9836,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>21</v>
-      </c>
-      <c r="G347" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10627,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>387</v>
-      </c>
-      <c r="G348" t="s">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10655,11 +9886,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10679,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>21</v>
-      </c>
-      <c r="G350" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10705,13 +9932,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>21</v>
-      </c>
-      <c r="G351" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10731,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>21</v>
-      </c>
-      <c r="G352" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10757,13 +9980,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>21</v>
-      </c>
-      <c r="G353" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10783,13 +10004,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>21</v>
-      </c>
-      <c r="G354" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10809,13 +10028,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>21</v>
-      </c>
-      <c r="G355" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10835,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>21</v>
-      </c>
-      <c r="G356" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10861,13 +10076,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>14</v>
-      </c>
-      <c r="G357" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10887,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>21</v>
-      </c>
-      <c r="G358" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
